--- a/7.1 Tabelle.xlsx
+++ b/7.1 Tabelle.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157FA2A3-E4A6-40D1-AA74-22073D6C063C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C85EAE-C51F-4DC9-A5F1-6C9ED118068D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12160" windowHeight="9640" xr2:uid="{57C52E76-C789-4B00-9799-AF99C40737FA}"/>
   </bookViews>
@@ -23,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>U_cc</t>
   </si>
@@ -42,6 +43,9 @@
   </si>
   <si>
     <t>U_ADC</t>
+  </si>
+  <si>
+    <t>ADC Wert</t>
   </si>
 </sst>
 </file>
@@ -77,9 +81,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -112,8 +117,8 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>73840</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="2" name="Freihand 1">
@@ -132,7 +137,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="2" name="Freihand 1">
@@ -177,8 +182,8 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>154480</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="3" name="Freihand 2">
@@ -197,7 +202,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="3" name="Freihand 2">
@@ -583,13 +588,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04BFFFBF-D873-406C-97ED-BB11E6416236}">
-  <dimension ref="B4:J9"/>
+  <dimension ref="B4:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="3" max="3" width="12.234375" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="13.234375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="4" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B4" t="s">
@@ -671,6 +680,54 @@
       <c r="J9" s="1">
         <f>C4*(J7/(C5+J7))</f>
         <v>3.09375</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.5">
+      <c r="B12">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.5">
+      <c r="B13">
+        <f>C4/B12</f>
+        <v>8.0566406249999996E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.5">
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="2">
+        <f>C9/B13</f>
+        <v>372.36363636363637</v>
+      </c>
+      <c r="D15" s="2">
+        <f>D9/B13</f>
+        <v>1016.3007518796993</v>
+      </c>
+      <c r="E15" s="2">
+        <f>E9/B13</f>
+        <v>1657.9047619047619</v>
+      </c>
+      <c r="F15" s="2">
+        <f>F9/B13</f>
+        <v>2048</v>
+      </c>
+      <c r="G15" s="2">
+        <f>G9/B13</f>
+        <v>3377.4035087719299</v>
+      </c>
+      <c r="H15" s="2">
+        <f>H9/B13</f>
+        <v>3570.8717948717949</v>
+      </c>
+      <c r="I15" s="2">
+        <f>I9/B13</f>
+        <v>3723.6363636363635</v>
+      </c>
+      <c r="J15" s="2">
+        <f>J9/B13</f>
+        <v>3840</v>
       </c>
     </row>
   </sheetData>

--- a/7.1 Tabelle.xlsx
+++ b/7.1 Tabelle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C85EAE-C51F-4DC9-A5F1-6C9ED118068D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D3825D8-FC85-42F1-8A5A-E63739BF1FB3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12160" windowHeight="9640" xr2:uid="{57C52E76-C789-4B00-9799-AF99C40737FA}"/>
   </bookViews>
@@ -31,21 +31,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>U_cc</t>
+    <t>ADC Wert</t>
   </si>
   <si>
-    <t>R_v</t>
+    <t>R_ADC [Ohm]</t>
   </si>
   <si>
-    <t>R_ADC</t>
+    <t>U_ADC [V]</t>
   </si>
   <si>
-    <t>U_ADC</t>
+    <t>U_cc [V]</t>
   </si>
   <si>
-    <t>ADC Wert</t>
+    <t>R_v [Ohm]</t>
+  </si>
+  <si>
+    <t>ADC Max wert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADC Step </t>
   </si>
 </sst>
 </file>
@@ -588,21 +594,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04BFFFBF-D873-406C-97ED-BB11E6416236}">
-  <dimension ref="B4:J15"/>
+  <dimension ref="B4:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
+    <col min="2" max="2" width="12.17578125" customWidth="1"/>
     <col min="3" max="3" width="12.234375" bestFit="1" customWidth="1"/>
     <col min="4" max="10" width="13.234375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>3.3</v>
@@ -610,7 +617,7 @@
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B5" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>1000</v>
@@ -618,7 +625,7 @@
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>100</v>
@@ -645,93 +652,100 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="1">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.5">
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1">
         <f>C4*(C7/(C5+C7))</f>
         <v>0.3</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D8" s="1">
         <f>C4*(D7/(C5+D7))</f>
         <v>0.81879699248120297</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E8" s="1">
         <f>C4*(E7/(C5+E7))</f>
         <v>1.3357142857142856</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F8" s="1">
         <f>C4*(F7/(C5+F7))</f>
         <v>1.65</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G8" s="1">
         <f>C4*(G7/(C5+G7))</f>
         <v>2.7210526315789472</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H8" s="1">
         <f>C4*(H7/(C5+H7))</f>
         <v>2.8769230769230769</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I8" s="1">
         <f>C4*(I7/(C5+I7))</f>
         <v>2.9999999999999996</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J8" s="1">
         <f>C4*(J7/(C5+J7))</f>
         <v>3.09375</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B12">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.5">
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10">
         <v>4096</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.5">
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <f>C4/C10</f>
+        <v>8.0566406249999996E-4</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B13">
-        <f>C4/B12</f>
-        <v>8.0566406249999996E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="2">
-        <f>C9/B13</f>
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2">
+        <f>C8/C11</f>
         <v>372.36363636363637</v>
       </c>
-      <c r="D15" s="2">
-        <f>D9/B13</f>
+      <c r="D13" s="2">
+        <f>D8/C11</f>
         <v>1016.3007518796993</v>
       </c>
-      <c r="E15" s="2">
-        <f>E9/B13</f>
+      <c r="E13" s="2">
+        <f>E8/C11</f>
         <v>1657.9047619047619</v>
       </c>
-      <c r="F15" s="2">
-        <f>F9/B13</f>
+      <c r="F13" s="2">
+        <f>F8/C11</f>
         <v>2048</v>
       </c>
-      <c r="G15" s="2">
-        <f>G9/B13</f>
+      <c r="G13" s="2">
+        <f>G8/C11</f>
         <v>3377.4035087719299</v>
       </c>
-      <c r="H15" s="2">
-        <f>H9/B13</f>
+      <c r="H13" s="2">
+        <f>H8/C11</f>
         <v>3570.8717948717949</v>
       </c>
-      <c r="I15" s="2">
-        <f>I9/B13</f>
+      <c r="I13" s="2">
+        <f>I8/C11</f>
         <v>3723.6363636363635</v>
       </c>
-      <c r="J15" s="2">
-        <f>J9/B13</f>
+      <c r="J13" s="2">
+        <f>J8/C11</f>
         <v>3840</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/7.1 Tabelle.xlsx
+++ b/7.1 Tabelle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D3825D8-FC85-42F1-8A5A-E63739BF1FB3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D39850-07BC-412D-8633-6B4889849044}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12160" windowHeight="9640" xr2:uid="{57C52E76-C789-4B00-9799-AF99C40737FA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12160" windowHeight="9640" tabRatio="375" xr2:uid="{57C52E76-C789-4B00-9799-AF99C40737FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>ADC Wert</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t xml:space="preserve">ADC Step </t>
+  </si>
+  <si>
+    <t>ADC Grenze</t>
   </si>
 </sst>
 </file>
@@ -594,17 +597,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04BFFFBF-D873-406C-97ED-BB11E6416236}">
-  <dimension ref="B4:J13"/>
+  <dimension ref="B4:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="2" max="2" width="12.17578125" customWidth="1"/>
-    <col min="3" max="3" width="12.234375" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="13.234375" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="8.64453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:10" x14ac:dyDescent="0.5">
@@ -741,6 +743,43 @@
       <c r="J13" s="2">
         <f>J8/C11</f>
         <v>3840</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.5">
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="2">
+        <f>((C13+D13)/2)</f>
+        <v>694.33219412166784</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" ref="D15:J15" si="0">((D13+E13)/2)</f>
+        <v>1337.1027568922307</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="0"/>
+        <v>1852.952380952381</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="0"/>
+        <v>2712.7017543859647</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="0"/>
+        <v>3474.1376518218622</v>
+      </c>
+      <c r="H15" s="2">
+        <f t="shared" si="0"/>
+        <v>3647.2540792540794</v>
+      </c>
+      <c r="I15" s="2">
+        <f t="shared" si="0"/>
+        <v>3781.818181818182</v>
+      </c>
+      <c r="J15" s="2">
+        <f>((J13+C10)/2)</f>
+        <v>3968</v>
       </c>
     </row>
   </sheetData>

--- a/7.1 Tabelle.xlsx
+++ b/7.1 Tabelle.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Desktop\Etit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D39850-07BC-412D-8633-6B4889849044}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382A0B74-EEFB-4AD4-B016-0BF5ECBD2C82}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12160" windowHeight="9640" tabRatio="375" xr2:uid="{57C52E76-C789-4B00-9799-AF99C40737FA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6067" windowHeight="4433" tabRatio="375" xr2:uid="{57C52E76-C789-4B00-9799-AF99C40737FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -599,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04BFFFBF-D873-406C-97ED-BB11E6416236}">
   <dimension ref="B4:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -633,19 +633,19 @@
         <v>100</v>
       </c>
       <c r="D7">
-        <v>330</v>
+        <v>150</v>
       </c>
       <c r="E7">
+        <v>220</v>
+      </c>
+      <c r="F7">
         <v>680</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>1000</v>
       </c>
-      <c r="G7">
-        <v>4700</v>
-      </c>
       <c r="H7">
-        <v>6800</v>
+        <v>2200</v>
       </c>
       <c r="I7">
         <v>10000</v>
@@ -664,23 +664,23 @@
       </c>
       <c r="D8" s="1">
         <f>C4*(D7/(C5+D7))</f>
-        <v>0.81879699248120297</v>
+        <v>0.43043478260869561</v>
       </c>
       <c r="E8" s="1">
         <f>C4*(E7/(C5+E7))</f>
-        <v>1.3357142857142856</v>
+        <v>0.59508196721311479</v>
       </c>
       <c r="F8" s="1">
         <f>C4*(F7/(C5+F7))</f>
-        <v>1.65</v>
+        <v>1.3357142857142856</v>
       </c>
       <c r="G8" s="1">
         <f>C4*(G7/(C5+G7))</f>
-        <v>2.7210526315789472</v>
+        <v>1.65</v>
       </c>
       <c r="H8" s="1">
         <f>C4*(H7/(C5+H7))</f>
-        <v>2.8769230769230769</v>
+        <v>2.2687499999999998</v>
       </c>
       <c r="I8" s="1">
         <f>C4*(I7/(C5+I7))</f>
@@ -696,7 +696,7 @@
         <v>5</v>
       </c>
       <c r="C10">
-        <v>4096</v>
+        <v>4095</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.5">
@@ -705,7 +705,7 @@
       </c>
       <c r="C11">
         <f>C4/C10</f>
-        <v>8.0566406249999996E-4</v>
+        <v>8.0586080586080586E-4</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.5">
@@ -714,35 +714,35 @@
       </c>
       <c r="C13" s="2">
         <f>C8/C11</f>
-        <v>372.36363636363637</v>
+        <v>372.27272727272725</v>
       </c>
       <c r="D13" s="2">
         <f>D8/C11</f>
-        <v>1016.3007518796993</v>
+        <v>534.13043478260863</v>
       </c>
       <c r="E13" s="2">
         <f>E8/C11</f>
-        <v>1657.9047619047619</v>
+        <v>738.44262295081967</v>
       </c>
       <c r="F13" s="2">
         <f>F8/C11</f>
-        <v>2048</v>
+        <v>1657.5</v>
       </c>
       <c r="G13" s="2">
         <f>G8/C11</f>
-        <v>3377.4035087719299</v>
+        <v>2047.5</v>
       </c>
       <c r="H13" s="2">
         <f>H8/C11</f>
-        <v>3570.8717948717949</v>
+        <v>2815.3125</v>
       </c>
       <c r="I13" s="2">
         <f>I8/C11</f>
-        <v>3723.6363636363635</v>
+        <v>3722.7272727272721</v>
       </c>
       <c r="J13" s="2">
         <f>J8/C11</f>
-        <v>3840</v>
+        <v>3839.0625</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.5">
@@ -751,35 +751,35 @@
       </c>
       <c r="C15" s="2">
         <f>((C13+D13)/2)</f>
-        <v>694.33219412166784</v>
+        <v>453.20158102766794</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" ref="D15:J15" si="0">((D13+E13)/2)</f>
-        <v>1337.1027568922307</v>
+        <f t="shared" ref="D15:I15" si="0">((D13+E13)/2)</f>
+        <v>636.28652886671421</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="0"/>
-        <v>1852.952380952381</v>
+        <v>1197.9713114754099</v>
       </c>
       <c r="F15" s="2">
         <f t="shared" si="0"/>
-        <v>2712.7017543859647</v>
+        <v>1852.5</v>
       </c>
       <c r="G15" s="2">
         <f t="shared" si="0"/>
-        <v>3474.1376518218622</v>
+        <v>2431.40625</v>
       </c>
       <c r="H15" s="2">
         <f t="shared" si="0"/>
-        <v>3647.2540792540794</v>
+        <v>3269.019886363636</v>
       </c>
       <c r="I15" s="2">
         <f t="shared" si="0"/>
-        <v>3781.818181818182</v>
+        <v>3780.894886363636</v>
       </c>
       <c r="J15" s="2">
         <f>((J13+C10)/2)</f>
-        <v>3968</v>
+        <v>3967.03125</v>
       </c>
     </row>
   </sheetData>

--- a/7.1 Tabelle.xlsx
+++ b/7.1 Tabelle.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maximilianthemistocli/Documents/MIT-KIT/ETIT WS/Workshop ETIT 4/ETIT_WS4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D3825D8-FC85-42F1-8A5A-E63739BF1FB3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A828E7DE-CBB8-AE46-A055-BC577F5FC92C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12160" windowHeight="9640" xr2:uid="{57C52E76-C789-4B00-9799-AF99C40737FA}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20620" windowHeight="12920" xr2:uid="{57C52E76-C789-4B00-9799-AF99C40737FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -20,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>ADC Wert</t>
   </si>
@@ -52,6 +46,18 @@
   </si>
   <si>
     <t xml:space="preserve">ADC Step </t>
+  </si>
+  <si>
+    <t>ADC Grenze</t>
+  </si>
+  <si>
+    <t>Uadc</t>
+  </si>
+  <si>
+    <t>Rmax</t>
+  </si>
+  <si>
+    <t>Rmin</t>
   </si>
 </sst>
 </file>
@@ -93,7 +99,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -240,6 +246,136 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>528040</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>52960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>583120</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>73840</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="4" name="Freihand 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5C69CEC-E284-7649-9A1F-C5E6BA2C118C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5201640" y="1145160"/>
+            <a:ext cx="55080" cy="20880"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Freihand 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1C7E0A4-5A9E-41D6-8AEC-5364903909DF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5197320" y="1140840"/>
+              <a:ext cx="63720" cy="29520"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>556840</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>561520</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>154480</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="5" name="Freihand 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA2BABEF-C235-B941-BEF9-A7293D599855}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5230440" y="1234440"/>
+            <a:ext cx="4680" cy="12240"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="3" name="Freihand 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBBFB9A7-B73A-4386-9DC8-922AA09004CB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5226120" y="1230120"/>
+              <a:ext cx="13320" cy="20880"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -297,8 +433,62 @@
 </inkml:ink>
 </file>
 
+<file path=xl/ink/ink3.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2018-11-18T14:59:53.394"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 4 5120,'30'-3'1920,"-20"3"-1504,5 6 256,-7 1-576,10 7-224,3-2 32,30 6 32</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink4.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2018-11-18T14:59:53.422"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0 21247,'0'10'7904,"12"14"-6144</inkml:trace>
+</inkml:ink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -594,20 +784,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04BFFFBF-D873-406C-97ED-BB11E6416236}">
-  <dimension ref="B4:J13"/>
+  <dimension ref="B4:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.17578125" customWidth="1"/>
-    <col min="3" max="3" width="12.234375" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="13.234375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" customWidth="1"/>
+    <col min="3" max="10" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -615,7 +804,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.5">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -623,7 +812,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.5">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>1</v>
       </c>
@@ -631,19 +820,19 @@
         <v>100</v>
       </c>
       <c r="D7">
-        <v>330</v>
+        <v>150</v>
       </c>
       <c r="E7">
+        <v>220</v>
+      </c>
+      <c r="F7">
         <v>680</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>1000</v>
       </c>
-      <c r="G7">
-        <v>4700</v>
-      </c>
       <c r="H7">
-        <v>6800</v>
+        <v>2200</v>
       </c>
       <c r="I7">
         <v>10000</v>
@@ -651,8 +840,11 @@
       <c r="J7">
         <v>15000</v>
       </c>
+      <c r="K7">
+        <v>31000</v>
+      </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.5">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>2</v>
       </c>
@@ -662,23 +854,23 @@
       </c>
       <c r="D8" s="1">
         <f>C4*(D7/(C5+D7))</f>
-        <v>0.81879699248120297</v>
+        <v>0.43043478260869561</v>
       </c>
       <c r="E8" s="1">
         <f>C4*(E7/(C5+E7))</f>
-        <v>1.3357142857142856</v>
+        <v>0.59508196721311479</v>
       </c>
       <c r="F8" s="1">
         <f>C4*(F7/(C5+F7))</f>
-        <v>1.65</v>
+        <v>1.3357142857142856</v>
       </c>
       <c r="G8" s="1">
         <f>C4*(G7/(C5+G7))</f>
-        <v>2.7210526315789472</v>
+        <v>1.65</v>
       </c>
       <c r="H8" s="1">
         <f>C4*(H7/(C5+H7))</f>
-        <v>2.8769230769230769</v>
+        <v>2.2687499999999998</v>
       </c>
       <c r="I8" s="1">
         <f>C4*(I7/(C5+I7))</f>
@@ -688,59 +880,219 @@
         <f>C4*(J7/(C5+J7))</f>
         <v>3.09375</v>
       </c>
+      <c r="K8" s="1">
+        <f>C4*(K7/(C5+K7))</f>
+        <v>3.1968749999999999</v>
+      </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>5</v>
       </c>
       <c r="C10">
-        <v>4096</v>
+        <v>4095</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.5">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11">
         <f>C4/C10</f>
-        <v>8.0566406249999996E-4</v>
+        <v>8.0586080586080586E-4</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.5">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>0</v>
       </c>
       <c r="C13" s="2">
         <f>C8/C11</f>
-        <v>372.36363636363637</v>
+        <v>372.27272727272725</v>
       </c>
       <c r="D13" s="2">
         <f>D8/C11</f>
-        <v>1016.3007518796993</v>
+        <v>534.13043478260863</v>
       </c>
       <c r="E13" s="2">
         <f>E8/C11</f>
-        <v>1657.9047619047619</v>
+        <v>738.44262295081967</v>
       </c>
       <c r="F13" s="2">
         <f>F8/C11</f>
-        <v>2048</v>
+        <v>1657.5</v>
       </c>
       <c r="G13" s="2">
         <f>G8/C11</f>
-        <v>3377.4035087719299</v>
+        <v>2047.5</v>
       </c>
       <c r="H13" s="2">
         <f>H8/C11</f>
-        <v>3570.8717948717949</v>
+        <v>2815.3125</v>
       </c>
       <c r="I13" s="2">
         <f>I8/C11</f>
-        <v>3723.6363636363635</v>
+        <v>3722.7272727272721</v>
       </c>
       <c r="J13" s="2">
         <f>J8/C11</f>
-        <v>3840</v>
+        <v>3839.0625</v>
+      </c>
+      <c r="K13" s="2">
+        <f>K8/C11</f>
+        <v>3967.03125</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="2">
+        <f>((C13+D13)/2)</f>
+        <v>453.20158102766794</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" ref="D15:I15" si="0">((D13+E13)/2)</f>
+        <v>636.28652886671421</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="0"/>
+        <v>1197.9713114754099</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="0"/>
+        <v>1852.5</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="0"/>
+        <v>2431.40625</v>
+      </c>
+      <c r="H15" s="2">
+        <f t="shared" si="0"/>
+        <v>3269.019886363636</v>
+      </c>
+      <c r="I15" s="2">
+        <f t="shared" si="0"/>
+        <v>3780.894886363636</v>
+      </c>
+      <c r="J15" s="2">
+        <f>((J13+C10)/2)</f>
+        <v>3967.03125</v>
+      </c>
+      <c r="K15" s="2">
+        <f>((K13+C10)/2)</f>
+        <v>4031.015625</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <f>C15*3.3/(2^{12}-1)</f>
+        <v>0.36521739130434777</v>
+      </c>
+      <c r="D16">
+        <f>D15*3.3/(2^{12}-1)</f>
+        <v>0.51275837491090515</v>
+      </c>
+      <c r="E16">
+        <f>E15*3.3/(2^{12}-1)</f>
+        <v>0.96539812646370027</v>
+      </c>
+      <c r="F16">
+        <f>F15*3.3/(2^{12}-1)</f>
+        <v>1.4928571428571429</v>
+      </c>
+      <c r="G16">
+        <f>G15*3.3/(2^{12}-1)</f>
+        <v>1.9593750000000001</v>
+      </c>
+      <c r="H16">
+        <f>H15*3.3/(2^{12}-1)</f>
+        <v>2.6343749999999995</v>
+      </c>
+      <c r="I16">
+        <f>I15*3.3/(2^{12}-1)</f>
+        <v>3.0468749999999996</v>
+      </c>
+      <c r="J16">
+        <f>J15*3.3/(2^{12}-1)</f>
+        <v>3.1968749999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <f>C16*1000/(3.3-C16)</f>
+        <v>124.44444444444443</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ref="D18:J18" si="1">D16*1000/(3.3-D16)</f>
+        <v>183.96624472573836</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>413.51724137931041</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>826.08695652173924</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>1461.5384615384619</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>3957.7464788732368</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>12037.037037037022</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>31000.000000000025</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <f>C16*1000/(3.3-C16)</f>
+        <v>124.44444444444443</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ref="E19:J19" si="2">D16*1000/(3.3-D16)</f>
+        <v>183.96624472573836</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>413.51724137931041</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>826.08695652173924</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>1461.5384615384619</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="2"/>
+        <v>3957.7464788732368</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="2"/>
+        <v>12037.037037037022</v>
       </c>
     </row>
   </sheetData>
